--- a/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,7 +483,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier for this record (external references)</t>
+    <t>Identifiant de la directive anticipée</t>
   </si>
   <si>
     <t>Unique identifier for this copy of the Consent Statement.</t>
@@ -3098,7 +3098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>

--- a/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,7 +483,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiant de la directive anticipée</t>
+    <t>Identifier for this record (external references)</t>
   </si>
   <si>
     <t>Unique identifier for this copy of the Consent Statement.</t>
@@ -498,6 +498,13 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -505,6 +512,15 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Consent.identifier:mainIdentifier</t>
+  </si>
+  <si>
+    <t>mainIdentifier</t>
+  </si>
+  <si>
+    <t>Identifiant de la directive anticipée</t>
   </si>
   <si>
     <t>Consent.status</t>
@@ -595,9 +611,6 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1900,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3098,7 +3111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3111,7 +3124,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -3173,16 +3186,14 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>146</v>
@@ -3200,26 +3211,28 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3234,26 +3247,24 @@
         <v>90</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3265,7 +3276,7 @@
         <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>77</v>
@@ -3277,13 +3288,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3301,13 +3312,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -3316,24 +3327,24 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3356,16 +3367,20 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3389,13 +3404,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3413,7 +3428,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -3428,24 +3443,24 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3453,28 +3468,28 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3501,13 +3516,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3525,10 +3540,10 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>89</v>
@@ -3537,7 +3552,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3546,7 +3561,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3554,21 +3569,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3580,17 +3595,15 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3627,40 +3640,40 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3668,14 +3681,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3691,23 +3704,21 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3743,19 +3754,19 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3767,16 +3778,16 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3784,10 +3795,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3798,7 +3809,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3807,19 +3818,23 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3867,28 +3882,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3896,21 +3911,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3922,17 +3937,15 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3969,40 +3982,40 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4010,21 +4023,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4033,23 +4046,21 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4058,7 +4069,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -4085,40 +4096,40 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4126,10 +4137,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4152,18 +4163,20 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4172,7 +4185,7 @@
         <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>77</v>
@@ -4211,7 +4224,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4229,10 +4242,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4240,10 +4253,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4266,18 +4279,18 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4286,7 +4299,7 @@
         <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4338,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4343,10 +4356,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4354,10 +4367,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4380,17 +4393,17 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4413,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4439,7 +4452,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4457,10 +4470,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4468,10 +4481,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4494,19 +4507,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4516,7 +4527,7 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>77</v>
@@ -4555,7 +4566,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4573,10 +4584,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4584,10 +4595,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4610,19 +4621,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4671,7 +4682,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4689,10 +4700,10 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4700,10 +4711,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4711,10 +4722,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4726,16 +4737,20 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4759,13 +4774,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4783,13 +4798,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4798,24 +4813,24 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4823,10 +4838,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4838,17 +4853,15 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4873,13 +4886,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4897,13 +4910,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4912,24 +4925,24 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4943,7 +4956,7 @@
         <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>77</v>
@@ -4952,16 +4965,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5011,7 +5024,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5026,38 +5039,38 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>77</v>
@@ -5066,16 +5079,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5125,13 +5138,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -5140,28 +5153,28 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5180,15 +5193,17 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5237,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5252,35 +5267,35 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5292,17 +5307,15 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5339,23 +5352,25 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5364,28 +5379,26 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5397,7 +5410,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>77</v>
@@ -5406,16 +5419,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5453,19 +5466,17 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5483,7 +5494,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5497,7 +5508,7 @@
         <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>300</v>
@@ -5528,10 +5539,10 @@
         <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5581,7 +5592,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5599,7 +5610,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5608,14 +5619,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5627,24 +5640,26 @@
         <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5693,7 +5708,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5705,16 +5720,16 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5722,21 +5737,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5748,17 +5763,15 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5795,40 +5808,40 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5836,21 +5849,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5859,21 +5872,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5885,7 +5898,7 @@
         <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>77</v>
@@ -5897,52 +5910,52 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5950,10 +5963,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5979,14 +5992,14 @@
         <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5999,7 +6012,7 @@
         <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>77</v>
@@ -6011,13 +6024,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6035,7 +6048,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6053,10 +6066,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6064,10 +6077,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6087,22 +6100,20 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6115,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>77</v>
@@ -6127,13 +6138,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6151,7 +6162,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6169,10 +6180,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6180,10 +6191,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6203,22 +6214,22 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6231,7 +6242,7 @@
         <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -6267,7 +6278,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6285,10 +6296,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6296,10 +6307,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6322,19 +6333,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6347,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6383,7 +6394,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6401,10 +6412,10 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6412,10 +6423,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6438,19 +6449,19 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6499,7 +6510,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6520,7 +6531,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6528,10 +6539,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6554,17 +6565,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6577,7 +6590,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6613,7 +6626,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6634,7 +6647,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6642,10 +6655,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6668,17 +6681,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6691,7 +6704,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6727,7 +6740,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6748,7 +6761,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6756,10 +6769,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6770,7 +6783,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6779,19 +6792,21 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6839,13 +6854,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6860,7 +6875,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6897,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6894,13 +6909,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6951,19 +6966,19 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6972,7 +6987,7 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6980,21 +6995,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -7006,17 +7021,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7065,19 +7078,19 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7086,7 +7099,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7094,14 +7107,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>385</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7114,26 +7127,24 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7181,7 +7192,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7202,7 +7213,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7210,33 +7221,33 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>390</v>
@@ -7244,8 +7255,12 @@
       <c r="M47" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7293,19 +7308,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7314,7 +7329,7 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7354,11 +7369,9 @@
         <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N48" t="s" s="2">
         <v>395</v>
       </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7416,7 +7429,7 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
@@ -7436,10 +7449,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7459,23 +7472,21 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="O49" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7499,13 +7510,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7523,16 +7534,16 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -7552,10 +7563,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7566,7 +7577,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7578,16 +7589,20 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7611,13 +7626,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7635,16 +7650,16 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
@@ -7664,10 +7679,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7678,7 +7693,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7687,16 +7702,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>176</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>177</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7747,19 +7762,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>178</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7768,7 +7783,7 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7776,21 +7791,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7802,17 +7817,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7861,19 +7874,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7882,7 +7895,7 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7890,14 +7903,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>385</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7910,26 +7923,24 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7977,7 +7988,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7998,7 +8009,7 @@
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8006,42 +8017,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8089,19 +8104,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -8110,7 +8125,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8118,10 +8133,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8129,7 +8144,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8141,10 +8156,10 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>234</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>414</v>
@@ -8201,10 +8216,10 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
@@ -8256,13 +8271,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8340,12 +8355,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8359,22 +8374,22 @@
         <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>379</v>
+        <v>268</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8425,7 +8440,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8452,12 +8467,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8471,22 +8486,22 @@
         <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>177</v>
+        <v>425</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8537,7 +8552,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>178</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8549,7 +8564,7 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8558,7 +8573,7 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8566,21 +8581,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8592,17 +8607,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8651,19 +8664,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8672,7 +8685,7 @@
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8680,14 +8693,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>385</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8700,26 +8713,24 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O60" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8767,7 +8778,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8788,7 +8799,7 @@
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8796,42 +8807,46 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8855,13 +8870,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8879,19 +8894,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8900,7 +8915,7 @@
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8908,10 +8923,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8934,13 +8949,13 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8967,13 +8982,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8991,7 +9006,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9034,7 +9049,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -9043,25 +9058,23 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q63" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9111,7 +9124,7 @@
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -9148,7 +9161,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9160,20 +9173,22 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>176</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9217,19 +9232,19 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>178</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9238,7 +9253,7 @@
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9246,21 +9261,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9272,17 +9287,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9331,19 +9344,19 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9352,7 +9365,7 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9360,14 +9373,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>385</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9380,26 +9393,24 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O66" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9447,7 +9458,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9468,7 +9479,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9476,42 +9487,46 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9535,13 +9550,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9559,19 +9574,19 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9580,7 +9595,7 @@
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9588,10 +9603,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9614,13 +9629,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9647,13 +9662,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9671,7 +9686,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -9711,10 +9726,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9723,27 +9738,23 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N69" t="s" s="2">
         <v>453</v>
       </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>454</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9763,13 +9774,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9790,10 +9801,10 @@
         <v>450</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
@@ -9816,10 +9827,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9842,22 +9853,24 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9877,13 +9890,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>171</v>
+        <v>459</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9901,7 +9914,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9930,10 +9943,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9956,16 +9969,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9991,13 +10004,13 @@
         <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>77</v>
@@ -10015,7 +10028,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10044,10 +10057,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10070,16 +10083,16 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10105,13 +10118,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10129,7 +10142,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10158,10 +10171,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10184,16 +10197,16 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10219,11 +10232,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y73" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Z73" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10241,7 +10256,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10270,10 +10285,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10284,7 +10299,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10296,16 +10311,16 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>431</v>
+        <v>173</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10331,13 +10346,11 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10355,13 +10368,13 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
@@ -10398,7 +10411,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10410,7 +10423,7 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>486</v>
@@ -10418,14 +10431,14 @@
       <c r="M75" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q75" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10475,7 +10488,7 @@
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
@@ -10490,7 +10503,7 @@
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10512,7 +10525,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10521,23 +10534,25 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>176</v>
+        <v>490</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>177</v>
+        <v>491</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="R76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10581,19 +10596,19 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>178</v>
+        <v>489</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10602,7 +10617,7 @@
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10610,21 +10625,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10636,17 +10651,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10695,19 +10708,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10716,7 +10729,7 @@
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10724,14 +10737,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>385</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10744,26 +10757,24 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10811,7 +10822,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10832,7 +10843,7 @@
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10840,42 +10851,46 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>493</v>
+        <v>390</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10899,13 +10914,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>495</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>496</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -10923,19 +10938,19 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>492</v>
+        <v>392</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10944,7 +10959,7 @@
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10952,10 +10967,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10978,13 +10993,13 @@
         <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11011,13 +11026,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>499</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -11035,7 +11050,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11075,10 +11090,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11087,16 +11102,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11150,10 +11165,10 @@
         <v>501</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
@@ -11174,8 +11189,120 @@
         <v>77</v>
       </c>
     </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11185,7 +11312,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-advance-directive-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
